--- a/IT/grade.xlsx
+++ b/IT/grade.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>87.8</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I11" si="0">ROUNDUP(H2,"00"%)</f>
+        <f t="shared" ref="I2:I10" si="0">ROUNDUP(H2,"00"%)</f>
         <v>88</v>
       </c>
       <c r="J2" s="5" t="str">
